--- a/状态转移表.xlsx
+++ b/状态转移表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiji/我的坚果云/spin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiji/我的坚果云/spin/exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="24660" tabRatio="500"/>
+    <workbookView xWindow="-28800" yWindow="8380" windowWidth="14400" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>索引</t>
     <rPh sb="0" eb="1">
@@ -60,6 +60,16 @@
     <t>结束</t>
     <rPh sb="0" eb="1">
       <t>jie'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一优先级</t>
+    <rPh sb="0" eb="1">
+      <t>xia'yi'lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'cisn'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -621,7 +631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -635,18 +645,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
